--- a/01_data-input/National/RS/life_expectancy.xlsx
+++ b/01_data-input/National/RS/life_expectancy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\National\RS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961DABEC-8986-4EE7-9492-2B97D9E74B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F50E6A9-8243-493A-9C3B-6C4E7844860D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4485" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportedData" sheetId="1" r:id="rId1"/>
@@ -635,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -681,9 +681,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -721,7 +721,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -827,7 +827,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -969,7 +969,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -979,11 +979,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="42" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1970,7 +1973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2440,7 +2443,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>15</v>
       </c>
@@ -3145,7 +3148,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -3286,7 +3289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>15</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -3427,7 +3430,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -3474,7 +3477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -3662,7 +3665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -3709,7 +3712,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -3803,7 +3806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -3991,7 +3994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>15</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -4179,7 +4182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>15</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>15</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>15</v>
       </c>
@@ -4320,7 +4323,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -4367,7 +4370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -4461,7 +4464,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -4508,7 +4511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -4555,7 +4558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -4602,7 +4605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -4649,7 +4652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -4696,7 +4699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -4743,7 +4746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -4790,7 +4793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -4884,7 +4887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -5025,7 +5028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -5213,7 +5216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -5354,7 +5357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -5542,7 +5545,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -5683,7 +5686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -5777,7 +5780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -5824,7 +5827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -5965,7 +5968,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -6059,7 +6062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -6247,7 +6250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -6294,7 +6297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -6341,7 +6344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -6388,7 +6391,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -6576,7 +6579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -6623,7 +6626,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -6811,7 +6814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -6858,7 +6861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -6905,7 +6908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -6952,7 +6955,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -7046,7 +7049,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -7140,7 +7143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -7187,7 +7190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -7234,7 +7237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -7281,7 +7284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -7375,7 +7378,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -7563,7 +7566,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -7751,7 +7754,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
